--- a/excel/raideur_2rondelles_mesh1.xlsx
+++ b/excel/raideur_2rondelles_mesh1.xlsx
@@ -926,6 +926,41 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.27552150575772621"/>
+                  <c:y val="0.27498196443704592"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = 1431.3x </a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>xyToExcel!$A:$A</c:f>
@@ -1752,11 +1787,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142084736"/>
-        <c:axId val="129835776"/>
+        <c:axId val="111941120"/>
+        <c:axId val="111952256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142084736"/>
+        <c:axId val="111941120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1773,7 +1808,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Displacement</a:t>
+                  <a:t>Déplacement (cm)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1785,14 +1820,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129835776"/>
+        <c:crossAx val="111952256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="129835776"/>
+        <c:axId val="111952256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="45000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1808,7 +1845,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Force</a:t>
+                  <a:t>Force (N)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1820,7 +1857,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142084736"/>
+        <c:crossAx val="111941120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1843,14 +1880,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>742949</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>695324</xdr:colOff>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>80961</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2162,7 +2199,7 @@
   <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
